--- a/src/main/resources/合约导入模板.xlsx
+++ b/src/main/resources/合约导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="2835" windowWidth="18960" windowHeight="6765"/>
   </bookViews>
   <sheets>
     <sheet name="合约信息" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -114,12 +115,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,19 +422,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
@@ -463,31 +468,31 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0.1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>10</v>
       </c>
     </row>
